--- a/biology/Botanique/Diphénylamine/Diphénylamine.xlsx
+++ b/biology/Botanique/Diphénylamine/Diphénylamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diph%C3%A9nylamine</t>
+          <t>Diphénylamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La diphénylamine est un composé aromatique de formule brute C12H11N. Elle est constituée de deux groupes phényle reliés par un groupe amine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diph%C3%A9nylamine</t>
+          <t>Diphénylamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diph%C3%A9nylamine</t>
+          <t>Diphénylamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,11 +552,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée pour la fabrication de colorants, la stabilisation des explosifs contenant de la nitrocellulose ou du celluloïd.
-En chimie analytique, on l'utilise pour la détection des nitrates, des chlorates et autres substances oxydantes avec lesquels elle donne une couleur bleu profond en présence d'acide sulfurique[2].
-Elle est également utilisée pour l'entreposage des pommes et des poires, où on fait appel à ses propriétés fongicides. Le produit ne doit pas contenir plus de 2 mg·kg-1 d'amino-4-diphényle. Les formules commerciales ont une concentration de 100 à 318 g·l-1 et sont appliquées en émulsion ou en nébulisation à chaud[13].
+En chimie analytique, on l'utilise pour la détection des nitrates, des chlorates et autres substances oxydantes avec lesquels elle donne une couleur bleu profond en présence d'acide sulfurique.
+Elle est également utilisée pour l'entreposage des pommes et des poires, où on fait appel à ses propriétés fongicides. Le produit ne doit pas contenir plus de 2 mg·kg-1 d'amino-4-diphényle. Les formules commerciales ont une concentration de 100 à 318 g·l-1 et sont appliquées en émulsion ou en nébulisation à chaud.
 </t>
         </is>
       </c>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diph%C3%A9nylamine</t>
+          <t>Diphénylamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La diphénylamine se décolore à la lumière.
 </t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diph%C3%A9nylamine</t>
+          <t>Diphénylamine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Production et synthèse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La diphénylamine est préparée en chauffant de l'aniline avec de l'hydrochlorure d'aniline.
 </t>
